--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4.477650053321687E-43</v>
+        <v>3.458689682029154E-36</v>
       </c>
       <c r="E2">
-        <v>4.477650053321687E-43</v>
+        <v>3.458689682029154E-36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2389773036220535</v>
+        <v>0.009692396989404606</v>
       </c>
       <c r="E3">
-        <v>0.2389773036220535</v>
+        <v>0.009692396989404606</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999858009938115</v>
+        <v>0.9999807277324363</v>
       </c>
       <c r="E5">
-        <v>0.9999858009938115</v>
+        <v>0.9999807277324363</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999964</v>
+        <v>0.9999999999986402</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999964</v>
+        <v>0.9999999999986402</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>6.661338147750939E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.386342660392671E-16</v>
+        <v>0.0006583433920512715</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999999</v>
+        <v>0.9993416566079487</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999848010519</v>
+        <v>0.9999423499306409</v>
       </c>
       <c r="E11">
-        <v>1.519894810009248E-08</v>
+        <v>5.765006935909422E-05</v>
       </c>
       <c r="F11">
-        <v>183.8648986816406</v>
+        <v>168.5313262939453</v>
       </c>
       <c r="G11">
         <v>0.5</v>
